--- a/dataset-generators/flights/Topology.xlsx
+++ b/dataset-generators/flights/Topology.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2304\SymbolicComputation2304\dataset-generators\flights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\SymbolicComputation2304\dataset-generators\flights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA2FCF-CB00-49FC-9F70-093B8E699886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4EF07-FAF8-49A3-BEB6-DD20D888609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC90DC62-A36D-437F-9491-0AD4335354D6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{FC90DC62-A36D-437F-9491-0AD4335354D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
     <sheet name="Flights" sheetId="2" r:id="rId2"/>
+    <sheet name="Routes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>Brno</t>
+  </si>
+  <si>
+    <t>Krakow</t>
   </si>
 </sst>
 </file>
@@ -459,16 +463,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089F927D-017C-4F69-9AE5-9523F44E1341}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -487,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4</v>
       </c>
@@ -495,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>7</v>
       </c>
@@ -503,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10</v>
       </c>
@@ -511,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>11</v>
       </c>
@@ -519,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>13</v>
       </c>
@@ -527,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>14</v>
       </c>
@@ -535,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>16</v>
       </c>
@@ -543,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>18</v>
       </c>
@@ -551,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>20</v>
       </c>
@@ -559,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>21</v>
       </c>
@@ -567,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>23</v>
       </c>
@@ -575,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>24</v>
       </c>
@@ -583,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -601,12 +605,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,6 +622,380 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6ADFFC-5F53-495E-87CA-434D31A35CD7}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/dataset-generators/flights/Topology.xlsx
+++ b/dataset-generators/flights/Topology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\SymbolicComputation2304\dataset-generators\flights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2304\SymbolicComputation2304\dataset-generators\flights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4EF07-FAF8-49A3-BEB6-DD20D888609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88158BEB-5E09-42FF-BBDA-6ABFC538E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{FC90DC62-A36D-437F-9491-0AD4335354D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FC90DC62-A36D-437F-9491-0AD4335354D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -467,12 +467,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
@@ -531,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -539,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -547,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>18</v>
       </c>
@@ -555,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -563,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -587,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -605,12 +605,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,23 +631,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6ADFFC-5F53-495E-87CA-434D31A35CD7}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -667,7 +667,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -684,7 +684,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -704,15 +704,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -729,7 +729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -749,7 +749,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -769,15 +769,15 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -794,7 +794,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -814,7 +814,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -857,15 +857,15 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -885,7 +885,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -902,15 +902,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -927,7 +927,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -941,7 +941,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -958,7 +958,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -978,7 +978,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -996,6 +996,309 @@
       </c>
       <c r="H26">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
